--- a/Question_Set2/Programming skills/Svelte.xlsx
+++ b/Question_Set2/Programming skills/Svelte.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are developing a chat application and have an array of messages which you’d like to render onto the page inside of a ul element. You want each message to go inside of a li tag.What is the typical way to do this in Svelte?', 'ques_type': 2, 'options': ['Use an {#each} block.', 'Use a for loop.', 'Use the .forEach method.', 'Use an await block.'], 'score': 'Use an {#each} block.'}, {'title': 'Some of the content on your web application is loaded asynchronously via web requests to an API. You want to render the text returned by this API. However, the request returns a promise.How can you get the results of the request from within your component’s HTML?', 'ques_type': 2, 'options': ['Use the .catch method.', 'Use the .then method.', 'Access the resolved promise data using an await block.', 'Access the exception using a catch block.'], 'score': 'Access the resolved promise data using an await block.'}, {'title': "You're using Svelte to create an online voting system that allows users to input their personal information and select an option to vote for. Once the information is ready, they click a submit button that reads the data and sends it to the backend with on:click. However, if the user continues clicking the button, the information is sent multiple times.How should you limit the event to only trigger the first time the button is clicked?", 'ques_type': 2, 'options': ['Use vanilla JavaScript event listeners.', 'Use the browser’s built-in onClick attribute.', 'Add the preventDefault modifier.', 'Add the once modifier.'], 'score': 'Add the once modifier.'}, {'title': 'You have finished the frontend and are ready to begin developing a backend using SvelteKit. You want to create an API endpoint in TypeScript to handle authentication for your Svelte web application. What filename should you create to add this kind of endpoint?', 'ques_type': 2, 'options': ['+layout.js', '+page.ts', '+server.js', '+server.ts'], 'score': '+server.ts'}]</t>
+    <t>questions = [
+    {
+        "title": "You are developing a chat application and have an array of messages which you\u2019d like to render onto the page inside of a ul element. You want each message to go inside of a li tag.What is the typical way to do this in Svelte?",
+        "ques_type": 2,
+        "options": [
+            "Use an {#each} block.",
+            "Use a for loop.",
+            "Use the .forEach method.",
+            "Use an await block."
+        ],
+        "score": "Use an {#each} block."
+    },
+    {
+        "title": "Some of the content on your web application is loaded asynchronously via web requests to an API. You want to render the text returned by this API. However, the request returns a promise.How can you get the results of the request from within your component\u2019s HTML?",
+        "ques_type": 2,
+        "options": [
+            "Use the .catch method.",
+            "Use the .then method.",
+            "Access the resolved promise data using an await block.",
+            "Access the exception using a catch block."
+        ],
+        "score": "Access the resolved promise data using an await block."
+    },
+    {
+        "title": "You're using Svelte to create an online voting system that allows users to input their personal information and select an option to vote for. Once the information is ready, they click a submit button that reads the data and sends it to the backend with on:click. However, if the user continues clicking the button, the information is sent multiple times.How should you limit the event to only trigger the first time the button is clicked?",
+        "ques_type": 2,
+        "options": [
+            "Use vanilla JavaScript event listeners.",
+            "Use the browser\u2019s built-in onClick attribute.",
+            "Add the preventDefault modifier.",
+            "Add the once modifier."
+        ],
+        "score": "Add the once modifier."
+    },
+    {
+        "title": "You have finished the frontend and are ready to begin developing a backend using SvelteKit. You want to create an API endpoint in TypeScript to handle authentication for your Svelte web application. What filename should you create to add this kind of endpoint?",
+        "ques_type": 2,
+        "options": [
+            "+layout.js",
+            "+page.ts",
+            "+server.js",
+            "+server.ts"
+        ],
+        "score": "+server.ts"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
